--- a/homework2/mlrose-master/output/knapsack/sa__knapsack__run_stats_df.xlsx
+++ b/homework2/mlrose-master/output/knapsack/sa__knapsack__run_stats_df.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoyal\github\ml_7641\homework2\mlrose-master\output\knapsack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3899339A-FC8D-41F5-9E53-93001ADCCCBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E83287-8855-4F21-8960-A05BE87243D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Iteration</t>
   </si>
@@ -119,22 +119,25 @@
     <t>[1, 9, 5, 3, 8, 9, 6, 5, 9, 3, 1, 7, 6, 9, 7, 9, 6, 9, 6, 5, 9, 8, 9, 6, 5, 2, 1, 3, 9, 2, 8, 2, 9, 2, 1, 7, 4, 1, 5, 6, 8, 5, 5, 3, 9, 9, 4, 4, 8, 9, 5, 6, 9, 8, 9, 8, 9, 9, 8, 9, 5, 6, 6, 9, 7, 4, 3, 9, 1, 7, 8, 9, 9, 6, 6, 6, 2, 9, 9, 5, 7, 3, 2, 8, 8, 4, 2, 9, 7, 8, 3, 2, 9, 4, 4, 3, 6, 3, 9, 5, 9, 6, 8, 7, 7, 3, 9, 7, 7, 5, 6, 4, 9, 6, 6, 0, 7, 1, 5, 8, 5, 6, 5, 8, 6, 9, 2, 8, 9, 9, 1, 8, 9, 5, 8, 9, 8, 5, 5, 5]</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
     <t>Sum of Time</t>
   </si>
   <si>
-    <t>Sum of Fitness</t>
+    <t>Max of Fitness</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Decay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,8 +454,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -567,6 +576,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -612,13 +630,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -820,7 +839,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
+              <c:f>Sheet1!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -843,7 +862,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$14</c:f>
+              <c:f>Sheet1!$B$4:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -881,7 +900,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:f>Sheet1!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -930,11 +949,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>Sheet1!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of Fitness</c:v>
+                  <c:v>Max of Fitness</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -953,7 +972,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$14</c:f>
+              <c:f>Sheet1!$B$4:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -991,39 +1010,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$14</c:f>
+              <c:f>Sheet1!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>59059</c:v>
+                  <c:v>22368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59455</c:v>
+                  <c:v>22789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59651</c:v>
+                  <c:v>23180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59096</c:v>
+                  <c:v>23131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57122</c:v>
+                  <c:v>22707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56731</c:v>
+                  <c:v>23095</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55691</c:v>
+                  <c:v>22624</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55431</c:v>
+                  <c:v>22496</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55185</c:v>
+                  <c:v>22250</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54857</c:v>
+                  <c:v>21922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1851,7 +1870,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Xiaoyan Liu" refreshedDate="44114.625052199073" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="30">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Xiaoyan Liu" refreshedDate="44114.625052199073" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="30" xr:uid="{00000000-000A-0000-FFFF-FFFF0F000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:L31" sheet="sa__knapsack__run_stats_df"/>
   </cacheSource>
@@ -2305,8 +2324,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Temp">
+  <location ref="B3:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -2385,7 +2404,7 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Sum of Time" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Fitness" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Max of Fitness" fld="1" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
     <chartFormat chart="2" format="0" series="1">
@@ -2715,150 +2734,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.26150610000013264</v>
+      </c>
+      <c r="D4" s="3">
+        <v>22368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.13509069999986323</v>
+      </c>
+      <c r="D5" s="3">
+        <v>22789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1660954000000171</v>
+      </c>
+      <c r="D6" s="3">
+        <v>23180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.21328680000010522</v>
+      </c>
+      <c r="D7" s="3">
+        <v>23131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>250</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.20193749999998484</v>
+      </c>
+      <c r="D8" s="3">
+        <v>22707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>500</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.17066729999987626</v>
+      </c>
+      <c r="D9" s="3">
+        <v>23095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.23063079999985803</v>
+      </c>
+      <c r="D10" s="3">
+        <v>22624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.21996809999984632</v>
+      </c>
+      <c r="D11" s="3">
+        <v>22496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.20363250000025257</v>
+      </c>
+      <c r="D12" s="3">
+        <v>22250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.26453669999977969</v>
+      </c>
+      <c r="D13" s="3">
+        <v>21922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="C14" s="3">
+        <v>2.067351899999716</v>
+      </c>
+      <c r="D14" s="3">
+        <v>23180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.05</v>
+      </c>
+      <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.26150610000013264</v>
-      </c>
-      <c r="C4" s="3">
-        <v>59059</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.13509069999986323</v>
-      </c>
-      <c r="C5" s="3">
-        <v>59455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>50</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.1660954000000171</v>
-      </c>
-      <c r="C6" s="3">
-        <v>59651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>100</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.21328680000010522</v>
-      </c>
-      <c r="C7" s="3">
-        <v>59096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>250</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.20193749999998484</v>
-      </c>
-      <c r="C8" s="3">
-        <v>57122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>500</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.17066729999987626</v>
-      </c>
-      <c r="C9" s="3">
-        <v>56731</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.23063079999985803</v>
-      </c>
-      <c r="C10" s="3">
-        <v>55691</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>2500</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.21996809999984632</v>
-      </c>
-      <c r="C11" s="3">
-        <v>55431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>5000</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.20363250000025257</v>
-      </c>
-      <c r="C12" s="3">
-        <v>55185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>10000</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.26453669999977969</v>
-      </c>
-      <c r="C13" s="3">
-        <v>54857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2.067351899999716</v>
-      </c>
-      <c r="C14" s="3">
-        <v>572278</v>
+      <c r="C15">
+        <v>1.828245300013799</v>
+      </c>
+      <c r="D15">
+        <v>16173</v>
       </c>
     </row>
   </sheetData>
@@ -2868,7 +2934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
